--- a/stm32/stm32.xlsx
+++ b/stm32/stm32.xlsx
@@ -4,15 +4,40 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="移植ucos" sheetId="1" r:id="rId1"/>
+    <sheet name="  clk" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>可以使用三种不同的时钟源来驱动系统时钟 (SYSCLK)：
+ HSI 振荡器时钟
+ HSE 振荡器时钟
+ 主 PLL (PLL) 时钟
+器件具有以下两个次级时钟源：
+ 32 kHz 低速内部 RC (LSI RC)，该 RC 用于驱动独立看门狗，也可选择提供给 RTC 用
+于停机/待机模式下的自动唤醒
+ 32.768 kHz 低速外部晶振（LSE 晶振），用于驱动 RTC 时钟 (RTCCLK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(25*(x)/(25/2)=216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25*108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,9 +81,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -67,6 +95,578 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="495300" y="190500"/>
+          <a:ext cx="7029450" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="3943350"/>
+          <a:ext cx="5972175" cy="4391025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8448675" cy="8486775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>37739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8896349" y="2466614"/>
+          <a:ext cx="8429625" cy="2219686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8915400" y="4829175"/>
+          <a:ext cx="9382125" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4" descr="https://img-blog.csdnimg.cn/20181102151526885.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzM2MjQzOTQy,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="485775" y="8867775"/>
+          <a:ext cx="7820025" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10658475" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10658475" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10658475" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2059" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8677275" y="8515350"/>
+          <a:ext cx="10610850" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2060" name="Picture 12" descr="https://img-blog.csdnimg.cn/20181102152420197.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzM2MjQzOTQy,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="457200" y="14087475"/>
+          <a:ext cx="6619875" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2061" name="Picture 13" descr="https://img-blog.csdnimg.cn/20181102152605950.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzM2MjQzOTQy,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="18716625"/>
+          <a:ext cx="5172075" cy="5743575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2062" name="Picture 14" descr="https://img-blog.csdn.net/20180810185348721"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="25060275"/>
+          <a:ext cx="10677525" cy="12077700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,25 +956,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="N6:N98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="14" max="14" width="87.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="14:14" ht="110.25" customHeight="1">
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="14:14">
+      <c r="N93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="14:14">
+      <c r="N98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
